--- a/biology/Botanique/Supplementum_Plantarum/Supplementum_Plantarum.xlsx
+++ b/biology/Botanique/Supplementum_Plantarum/Supplementum_Plantarum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Supplementum Plantarum Systematis Vegetabilium Editionis Decimae Tertiae, Generum Plantarum Editiones Sextae et Specierum Plantarum Editionis Secundae, communément abrégé en  Supplementum Plantarum Systematis Vegetabilium ou juste Supplementum Plantarum, abrégé en outre par les botanistes en Suppl. Pl., est un livre publié en 1782 par Carl von Linné le Jeune (1741-1783). 
